--- a/medicine/Handicap/Normalisation_(éducation_spécialisée)/Normalisation_(éducation_spécialisée).xlsx
+++ b/medicine/Handicap/Normalisation_(éducation_spécialisée)/Normalisation_(éducation_spécialisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Normalisation_(%C3%A9ducation_sp%C3%A9cialis%C3%A9e)</t>
+          <t>Normalisation_(éducation_spécialisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La normalisation est, dans le domaine de l'éducation spécialisée, le principe d'éducation des personnes handicapées à des modes et des conditions de vie quotidienne qui soient aussi proches que possible des circonstances ordinaires et des modes de vie de la société[1]. La normalisation est un processus rigoureux de services à la personne[2] souvent appliqué dans le domaine du handicap. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La normalisation est, dans le domaine de l'éducation spécialisée, le principe d'éducation des personnes handicapées à des modes et des conditions de vie quotidienne qui soient aussi proches que possible des circonstances ordinaires et des modes de vie de la société. La normalisation est un processus rigoureux de services à la personne souvent appliqué dans le domaine du handicap. 
 </t>
         </is>
       </c>
